--- a/Chapter 4/example4_1.xlsx
+++ b/Chapter 4/example4_1.xlsx
@@ -1,29 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Resposity\YiDanhui-WangYan_Applied-Time-Series-Analysis\Chapter 4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405C3BF3-5ED9-41A5-9A74-EEA7CBF4C97D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="17426" windowHeight="9028" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="Sheet"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Sheet">'Sheet'!$A$1:$B$85</definedName>
+    <definedName name="Sheet">Sheet!$A$1:$B$85</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -47,19 +73,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -101,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,9 +170,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,6 +222,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -342,700 +415,698 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row outlineLevel="0" r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="0">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0.3</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>-0.45</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="0">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>0.36</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>3</v>
       </c>
     </row>
-    <row outlineLevel="0" r="5">
-      <c r="A5" s="0">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>0</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>4</v>
       </c>
     </row>
-    <row outlineLevel="0" r="6">
-      <c r="A6" s="0">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>0.17</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>5</v>
       </c>
     </row>
-    <row outlineLevel="0" r="7">
-      <c r="A7" s="0">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>0.45</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>6</v>
       </c>
     </row>
-    <row outlineLevel="0" r="8">
-      <c r="A8" s="0">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>2.15</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>7</v>
       </c>
     </row>
-    <row outlineLevel="0" r="9">
-      <c r="A9" s="0">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>4.42</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row outlineLevel="0" r="10">
-      <c r="A10" s="0">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>3.48</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>9</v>
       </c>
     </row>
-    <row outlineLevel="0" r="11">
-      <c r="A11" s="0">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>2.99</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>10</v>
       </c>
     </row>
-    <row outlineLevel="0" r="12">
-      <c r="A12" s="0">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>1.74</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>11</v>
       </c>
     </row>
-    <row outlineLevel="0" r="13">
-      <c r="A13" s="0">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>2.4</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>12</v>
       </c>
     </row>
-    <row outlineLevel="0" r="14">
-      <c r="A14" s="0">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>0.11</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>13</v>
       </c>
     </row>
-    <row outlineLevel="0" r="15">
-      <c r="A15" s="0">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>0.96</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>14</v>
       </c>
     </row>
-    <row outlineLevel="0" r="16">
-      <c r="A16" s="0">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>0.21</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>15</v>
       </c>
     </row>
-    <row outlineLevel="0" r="17">
-      <c r="A17" s="0">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>-0.1</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>16</v>
       </c>
     </row>
-    <row outlineLevel="0" r="18">
-      <c r="A18" s="0">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>-1.27</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>17</v>
       </c>
     </row>
-    <row outlineLevel="0" r="19">
-      <c r="A19" s="0">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>-1.45</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>18</v>
       </c>
     </row>
-    <row outlineLevel="0" r="20">
-      <c r="A20" s="0">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>-1.19</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>19</v>
       </c>
     </row>
-    <row outlineLevel="0" r="21">
-      <c r="A21" s="0">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>-1.47</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>20</v>
       </c>
     </row>
-    <row outlineLevel="0" r="22">
-      <c r="A22" s="0">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>-1.34</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>21</v>
       </c>
     </row>
-    <row outlineLevel="0" r="23">
-      <c r="A23" s="0">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>-1.02</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>22</v>
       </c>
     </row>
-    <row outlineLevel="0" r="24">
-      <c r="A24" s="0">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>-0.27</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24">
         <v>23</v>
       </c>
     </row>
-    <row outlineLevel="0" r="25">
-      <c r="A25" s="0">
-        <v>0.14</v>
-      </c>
-      <c r="B25" s="0">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B25">
         <v>24</v>
       </c>
     </row>
-    <row outlineLevel="0" r="26">
-      <c r="A26" s="0">
-        <v>-0.07</v>
-      </c>
-      <c r="B26" s="0">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="B26">
         <v>25</v>
       </c>
     </row>
-    <row outlineLevel="0" r="27">
-      <c r="A27" s="0">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>0.1</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27">
         <v>26</v>
       </c>
     </row>
-    <row outlineLevel="0" r="28">
-      <c r="A28" s="0">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>-0.15</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28">
         <v>27</v>
       </c>
     </row>
-    <row outlineLevel="0" r="29">
-      <c r="A29" s="0">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>-0.36</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29">
         <v>28</v>
       </c>
     </row>
-    <row outlineLevel="0" r="30">
-      <c r="A30" s="0">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>-0.5</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30">
         <v>29</v>
       </c>
     </row>
-    <row outlineLevel="0" r="31">
-      <c r="A31" s="0">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>-1.93</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31">
         <v>30</v>
       </c>
     </row>
-    <row outlineLevel="0" r="32">
-      <c r="A32" s="0">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>-1.49</v>
       </c>
-      <c r="B32" s="0">
+      <c r="B32">
         <v>31</v>
       </c>
     </row>
-    <row outlineLevel="0" r="33">
-      <c r="A33" s="0">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>-2.35</v>
       </c>
-      <c r="B33" s="0">
+      <c r="B33">
         <v>32</v>
       </c>
     </row>
-    <row outlineLevel="0" r="34">
-      <c r="A34" s="0">
-        <v>-2.18</v>
-      </c>
-      <c r="B34" s="0">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="B34">
         <v>33</v>
       </c>
     </row>
-    <row outlineLevel="0" r="35">
-      <c r="A35" s="0">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>-0.39</v>
       </c>
-      <c r="B35" s="0">
+      <c r="B35">
         <v>34</v>
       </c>
     </row>
-    <row outlineLevel="0" r="36">
-      <c r="A36" s="0">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>-0.52</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B36">
         <v>35</v>
       </c>
     </row>
-    <row outlineLevel="0" r="37">
-      <c r="A37" s="0">
-        <v>-2.24</v>
-      </c>
-      <c r="B37" s="0">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="B37">
         <v>36</v>
       </c>
     </row>
-    <row outlineLevel="0" r="38">
-      <c r="A38" s="0">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>-3.46</v>
       </c>
-      <c r="B38" s="0">
+      <c r="B38">
         <v>37</v>
       </c>
     </row>
-    <row outlineLevel="0" r="39">
-      <c r="A39" s="0">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>-3.97</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39">
         <v>38</v>
       </c>
     </row>
-    <row outlineLevel="0" r="40">
-      <c r="A40" s="0">
-        <v>-4.6</v>
-      </c>
-      <c r="B40" s="0">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="B40">
         <v>39</v>
       </c>
     </row>
-    <row outlineLevel="0" r="41">
-      <c r="A41" s="0">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>-3.09</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41">
         <v>40</v>
       </c>
     </row>
-    <row outlineLevel="0" r="42">
-      <c r="A42" s="0">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>-2.19</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B42">
         <v>41</v>
       </c>
     </row>
-    <row outlineLevel="0" r="43">
-      <c r="A43" s="0">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>-1.21</v>
       </c>
-      <c r="B43" s="0">
+      <c r="B43">
         <v>42</v>
       </c>
     </row>
-    <row outlineLevel="0" r="44">
-      <c r="A44" s="0">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>0.78</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44">
         <v>43</v>
       </c>
     </row>
-    <row outlineLevel="0" r="45">
-      <c r="A45" s="0">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>0.88</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45">
         <v>44</v>
       </c>
     </row>
-    <row outlineLevel="0" r="46">
-      <c r="A46" s="0">
-        <v>2.07</v>
-      </c>
-      <c r="B46" s="0">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="B46">
         <v>45</v>
       </c>
     </row>
-    <row outlineLevel="0" r="47">
-      <c r="A47" s="0">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>1.44</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47">
         <v>46</v>
       </c>
     </row>
-    <row outlineLevel="0" r="48">
-      <c r="A48" s="0">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>1.5</v>
       </c>
-      <c r="B48" s="0">
+      <c r="B48">
         <v>47</v>
       </c>
     </row>
-    <row outlineLevel="0" r="49">
-      <c r="A49" s="0">
-        <v>0.29</v>
-      </c>
-      <c r="B49" s="0">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="B49">
         <v>48</v>
       </c>
     </row>
-    <row outlineLevel="0" r="50">
-      <c r="A50" s="0">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>-0.36</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B50">
         <v>49</v>
       </c>
     </row>
-    <row outlineLevel="0" r="51">
-      <c r="A51" s="0">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>-0.97</v>
       </c>
-      <c r="B51" s="0">
+      <c r="B51">
         <v>50</v>
       </c>
     </row>
-    <row outlineLevel="0" r="52">
-      <c r="A52" s="0">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>-0.3</v>
       </c>
-      <c r="B52" s="0">
+      <c r="B52">
         <v>51</v>
       </c>
     </row>
-    <row outlineLevel="0" r="53">
-      <c r="A53" s="0">
-        <v>-0.28</v>
-      </c>
-      <c r="B53" s="0">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="B53">
         <v>52</v>
       </c>
     </row>
-    <row outlineLevel="0" r="54">
-      <c r="A54" s="0">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>0.8</v>
       </c>
-      <c r="B54" s="0">
+      <c r="B54">
         <v>53</v>
       </c>
     </row>
-    <row outlineLevel="0" r="55">
-      <c r="A55" s="0">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>0.91</v>
       </c>
-      <c r="B55" s="0">
+      <c r="B55">
         <v>54</v>
       </c>
     </row>
-    <row outlineLevel="0" r="56">
-      <c r="A56" s="0">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>1.95</v>
       </c>
-      <c r="B56" s="0">
+      <c r="B56">
         <v>55</v>
       </c>
     </row>
-    <row outlineLevel="0" r="57">
-      <c r="A57" s="0">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>1.77</v>
       </c>
-      <c r="B57" s="0">
+      <c r="B57">
         <v>56</v>
       </c>
     </row>
-    <row outlineLevel="0" r="58">
-      <c r="A58" s="0">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>1.8</v>
       </c>
-      <c r="B58" s="0">
+      <c r="B58">
         <v>57</v>
       </c>
     </row>
-    <row outlineLevel="0" r="59">
-      <c r="A59" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B59" s="0">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B59">
         <v>58</v>
       </c>
     </row>
-    <row outlineLevel="0" r="60">
-      <c r="A60" s="0">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>-0.11</v>
       </c>
-      <c r="B60" s="0">
+      <c r="B60">
         <v>59</v>
       </c>
     </row>
-    <row outlineLevel="0" r="61">
-      <c r="A61" s="0">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>0.1</v>
       </c>
-      <c r="B61" s="0">
+      <c r="B61">
         <v>60</v>
       </c>
     </row>
-    <row outlineLevel="0" r="62">
-      <c r="A62" s="0">
-        <v>-0.56</v>
-      </c>
-      <c r="B62" s="0">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="B62">
         <v>61</v>
       </c>
     </row>
-    <row outlineLevel="0" r="63">
-      <c r="A63" s="0">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>-1.34</v>
       </c>
-      <c r="B63" s="0">
+      <c r="B63">
         <v>62</v>
       </c>
     </row>
-    <row outlineLevel="0" r="64">
-      <c r="A64" s="0">
-        <v>-2.47</v>
-      </c>
-      <c r="B64" s="0">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="B64">
         <v>63</v>
       </c>
     </row>
-    <row outlineLevel="0" r="65">
-      <c r="A65" s="0">
-        <v>0.07</v>
-      </c>
-      <c r="B65" s="0">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B65">
         <v>64</v>
       </c>
     </row>
-    <row outlineLevel="0" r="66">
-      <c r="A66" s="0">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>-0.69</v>
       </c>
-      <c r="B66" s="0">
+      <c r="B66">
         <v>65</v>
       </c>
     </row>
-    <row outlineLevel="0" r="67">
-      <c r="A67" s="0">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>-1.96</v>
       </c>
-      <c r="B67" s="0">
+      <c r="B67">
         <v>66</v>
       </c>
     </row>
-    <row outlineLevel="0" r="68">
-      <c r="A68" s="0">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>0.04</v>
       </c>
-      <c r="B68" s="0">
+      <c r="B68">
         <v>67</v>
       </c>
     </row>
-    <row outlineLevel="0" r="69">
-      <c r="A69" s="0">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>1.59</v>
       </c>
-      <c r="B69" s="0">
+      <c r="B69">
         <v>68</v>
       </c>
     </row>
-    <row outlineLevel="0" r="70">
-      <c r="A70" s="0">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>0.2</v>
       </c>
-      <c r="B70" s="0">
+      <c r="B70">
         <v>69</v>
       </c>
     </row>
-    <row outlineLevel="0" r="71">
-      <c r="A71" s="0">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>0.39</v>
       </c>
-      <c r="B71" s="0">
+      <c r="B71">
         <v>70</v>
       </c>
     </row>
-    <row outlineLevel="0" r="72">
-      <c r="A72" s="0">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>1.06</v>
       </c>
-      <c r="B72" s="0">
+      <c r="B72">
         <v>71</v>
       </c>
     </row>
-    <row outlineLevel="0" r="73">
-      <c r="A73" s="0">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>-0.39</v>
       </c>
-      <c r="B73" s="0">
+      <c r="B73">
         <v>72</v>
       </c>
     </row>
-    <row outlineLevel="0" r="74">
-      <c r="A74" s="0">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>-0.16</v>
       </c>
-      <c r="B74" s="0">
+      <c r="B74">
         <v>73</v>
       </c>
     </row>
-    <row outlineLevel="0" r="75">
-      <c r="A75" s="0">
-        <v>2.07</v>
-      </c>
-      <c r="B75" s="0">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="B75">
         <v>74</v>
       </c>
     </row>
-    <row outlineLevel="0" r="76">
-      <c r="A76" s="0">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>1.35</v>
       </c>
-      <c r="B76" s="0">
+      <c r="B76">
         <v>75</v>
       </c>
     </row>
-    <row outlineLevel="0" r="77">
-      <c r="A77" s="0">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>1.46</v>
       </c>
-      <c r="B77" s="0">
+      <c r="B77">
         <v>76</v>
       </c>
     </row>
-    <row outlineLevel="0" r="78">
-      <c r="A78" s="0">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>1.5</v>
       </c>
-      <c r="B78" s="0">
+      <c r="B78">
         <v>77</v>
       </c>
     </row>
-    <row outlineLevel="0" r="79">
-      <c r="A79" s="0">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>0.94</v>
       </c>
-      <c r="B79" s="0">
+      <c r="B79">
         <v>78</v>
       </c>
     </row>
-    <row outlineLevel="0" r="80">
-      <c r="A80" s="0">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>-0.08</v>
       </c>
-      <c r="B80" s="0">
+      <c r="B80">
         <v>79</v>
       </c>
     </row>
-    <row outlineLevel="0" r="81">
-      <c r="A81" s="0">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>-0.66</v>
       </c>
-      <c r="B81" s="0">
+      <c r="B81">
         <v>80</v>
       </c>
     </row>
-    <row outlineLevel="0" r="82">
-      <c r="A82" s="0">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>-0.21</v>
       </c>
-      <c r="B82" s="0">
+      <c r="B82">
         <v>81</v>
       </c>
     </row>
-    <row outlineLevel="0" r="83">
-      <c r="A83" s="0">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>-0.77</v>
       </c>
-      <c r="B83" s="0">
+      <c r="B83">
         <v>82</v>
       </c>
     </row>
-    <row outlineLevel="0" r="84">
-      <c r="A84" s="0">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>-0.52</v>
       </c>
-      <c r="B84" s="0">
+      <c r="B84">
         <v>83</v>
       </c>
     </row>
-    <row outlineLevel="0" r="85">
-      <c r="A85" s="0">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>0.05</v>
       </c>
-      <c r="B85" s="0">
+      <c r="B85">
         <v>84</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>